--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3512.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3512.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.465176861738871</v>
+        <v>2.218295574188232</v>
       </c>
       <c r="B1">
-        <v>2.78468861671108</v>
+        <v>2.832104921340942</v>
       </c>
       <c r="C1">
-        <v>3.631636092959178</v>
+        <v>2.176068544387817</v>
       </c>
       <c r="D1">
-        <v>3.900513124438872</v>
+        <v>2.033602237701416</v>
       </c>
       <c r="E1">
-        <v>1.198119071768469</v>
+        <v>2.04894495010376</v>
       </c>
     </row>
   </sheetData>
